--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Itgb2</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.903662</v>
+        <v>0.7680745</v>
       </c>
       <c r="H2">
-        <v>3.807324</v>
+        <v>1.536149</v>
       </c>
       <c r="I2">
-        <v>0.4013069244481473</v>
+        <v>0.09258189785209336</v>
       </c>
       <c r="J2">
-        <v>0.3088528831846958</v>
+        <v>0.06368667635638427</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.370512</v>
+        <v>0.2680845</v>
       </c>
       <c r="N2">
-        <v>0.741024</v>
+        <v>0.536169</v>
       </c>
       <c r="O2">
-        <v>0.001638838393995521</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P2">
-        <v>0.00109315609805839</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q2">
-        <v>0.705329614944</v>
+        <v>0.20590886829525</v>
       </c>
       <c r="R2">
-        <v>2.821318459776</v>
+        <v>0.8236354731810001</v>
       </c>
       <c r="S2">
-        <v>0.0006576771955618836</v>
+        <v>5.380897960012228E-05</v>
       </c>
       <c r="T2">
-        <v>0.0003376244126562659</v>
+        <v>2.469232741564808E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.903662</v>
+        <v>0.7680745</v>
       </c>
       <c r="H3">
-        <v>3.807324</v>
+        <v>1.536149</v>
       </c>
       <c r="I3">
-        <v>0.4013069244481473</v>
+        <v>0.09258189785209336</v>
       </c>
       <c r="J3">
-        <v>0.3088528831846958</v>
+        <v>0.06368667635638427</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +629,22 @@
         <v>0.040702</v>
       </c>
       <c r="O3">
-        <v>6.001065220776088E-05</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P3">
-        <v>6.004345271296557E-05</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q3">
-        <v>0.025827616908</v>
+        <v>0.01042072276633333</v>
       </c>
       <c r="R3">
-        <v>0.154965701448</v>
+        <v>0.062524336598</v>
       </c>
       <c r="S3">
-        <v>2.408269027162394E-05</v>
+        <v>2.723187512002344E-06</v>
       </c>
       <c r="T3">
-        <v>1.854459348676336E-05</v>
+        <v>1.874459564935139E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.903662</v>
+        <v>0.7680745</v>
       </c>
       <c r="H4">
-        <v>3.807324</v>
+        <v>1.536149</v>
       </c>
       <c r="I4">
-        <v>0.4013069244481473</v>
+        <v>0.09258189785209336</v>
       </c>
       <c r="J4">
-        <v>0.3088528831846958</v>
+        <v>0.06368667635638427</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6539663333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N4">
-        <v>373.961899</v>
+        <v>481.13453</v>
       </c>
       <c r="O4">
-        <v>0.5513659638308389</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P4">
-        <v>0.5516673283636506</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q4">
-        <v>237.2990188580461</v>
+        <v>123.1823878541617</v>
       </c>
       <c r="R4">
-        <v>1423.794113148276</v>
+        <v>739.0943271249701</v>
       </c>
       <c r="S4">
-        <v>0.2212669791903424</v>
+        <v>0.03219054453562766</v>
       </c>
       <c r="T4">
-        <v>0.1703840449239118</v>
+        <v>0.0221578109620921</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.903662</v>
+        <v>0.7680745</v>
       </c>
       <c r="H5">
-        <v>3.807324</v>
+        <v>1.536149</v>
       </c>
       <c r="I5">
-        <v>0.4013069244481473</v>
+        <v>0.09258189785209336</v>
       </c>
       <c r="J5">
-        <v>0.3088528831846958</v>
+        <v>0.06368667635638427</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.4121773333333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N5">
-        <v>1.236532</v>
+        <v>1.222236</v>
       </c>
       <c r="O5">
-        <v>0.001823131339879293</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P5">
-        <v>0.001824127823450168</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q5">
-        <v>0.7846463267280001</v>
+        <v>0.4693841522910001</v>
       </c>
       <c r="R5">
-        <v>4.707877960368</v>
+        <v>1.877536609164</v>
       </c>
       <c r="S5">
-        <v>0.000731635230871989</v>
+        <v>0.000122661459335648</v>
       </c>
       <c r="T5">
-        <v>0.0005633871375700083</v>
+        <v>5.628794557535415E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.903662</v>
+        <v>0.7680745</v>
       </c>
       <c r="H6">
-        <v>3.807324</v>
+        <v>1.536149</v>
       </c>
       <c r="I6">
-        <v>0.4013069244481473</v>
+        <v>0.09258189785209336</v>
       </c>
       <c r="J6">
-        <v>0.3088528831846958</v>
+        <v>0.06368667635638427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>100.6318613333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N6">
-        <v>301.895584</v>
+        <v>571.812989</v>
       </c>
       <c r="O6">
-        <v>0.4451120557830785</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P6">
-        <v>0.4453553442621278</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q6">
-        <v>191.569050409536</v>
+        <v>146.3983252065602</v>
       </c>
       <c r="R6">
-        <v>1149.414302457216</v>
+        <v>878.389951239361</v>
       </c>
       <c r="S6">
-        <v>0.1786265501410994</v>
+        <v>0.03825743184230587</v>
       </c>
       <c r="T6">
-        <v>0.1375492821170709</v>
+        <v>0.02633384911270211</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,55 +844,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.67028</v>
+        <v>0.7680745</v>
       </c>
       <c r="H7">
-        <v>2.01084</v>
+        <v>1.536149</v>
       </c>
       <c r="I7">
-        <v>0.1413002966488295</v>
+        <v>0.09258189785209336</v>
       </c>
       <c r="J7">
-        <v>0.1631207986562514</v>
+        <v>0.06368667635638427</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.370512</v>
+        <v>109.381785</v>
       </c>
       <c r="N7">
-        <v>0.741024</v>
+        <v>328.145355</v>
       </c>
       <c r="O7">
-        <v>0.001638838393995521</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P7">
-        <v>0.00109315609805839</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q7">
-        <v>0.24834678336</v>
+        <v>84.01335982298249</v>
       </c>
       <c r="R7">
-        <v>1.49008070016</v>
+        <v>504.080158937895</v>
       </c>
       <c r="S7">
-        <v>0.0002315683512310585</v>
+        <v>0.02195472784771205</v>
       </c>
       <c r="T7">
-        <v>0.0001783164957712361</v>
+        <v>0.01511216154903412</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +921,40 @@
         <v>2.01084</v>
       </c>
       <c r="I8">
-        <v>0.1413002966488295</v>
+        <v>0.08079397830848588</v>
       </c>
       <c r="J8">
-        <v>0.1631207986562514</v>
+        <v>0.08336672828252452</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.01356733333333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N8">
-        <v>0.040702</v>
+        <v>0.536169</v>
       </c>
       <c r="O8">
-        <v>6.001065220776088E-05</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P8">
-        <v>6.004345271296557E-05</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q8">
-        <v>0.009093912186666666</v>
+        <v>0.17969167866</v>
       </c>
       <c r="R8">
-        <v>0.08184520967999999</v>
+        <v>1.07815007196</v>
       </c>
       <c r="S8">
-        <v>8.479522959046347E-06</v>
+        <v>4.69577923057854E-05</v>
       </c>
       <c r="T8">
-        <v>9.794335960617808E-06</v>
+        <v>3.232259348571122E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +968,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +983,40 @@
         <v>2.01084</v>
       </c>
       <c r="I9">
-        <v>0.1413002966488295</v>
+        <v>0.08079397830848588</v>
       </c>
       <c r="J9">
-        <v>0.1631207986562514</v>
+        <v>0.08336672828252452</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>124.6539663333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N9">
-        <v>373.961899</v>
+        <v>0.040702</v>
       </c>
       <c r="O9">
-        <v>0.5513659638308389</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P9">
-        <v>0.5516673283636506</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q9">
-        <v>83.55306055390668</v>
+        <v>0.009093912186666667</v>
       </c>
       <c r="R9">
-        <v>751.97754498516</v>
+        <v>0.08184520968</v>
       </c>
       <c r="S9">
-        <v>0.07790817425136534</v>
+        <v>2.376459738664584E-06</v>
       </c>
       <c r="T9">
-        <v>0.08998841519523917</v>
+        <v>2.453693145361664E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,40 +1045,40 @@
         <v>2.01084</v>
       </c>
       <c r="I10">
-        <v>0.1413002966488295</v>
+        <v>0.08079397830848588</v>
       </c>
       <c r="J10">
-        <v>0.1631207986562514</v>
+        <v>0.08336672828252452</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4121773333333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N10">
-        <v>1.236532</v>
+        <v>481.13453</v>
       </c>
       <c r="O10">
-        <v>0.001823131339879293</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P10">
-        <v>0.001824127823450168</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q10">
-        <v>0.2762742229866667</v>
+        <v>107.4982842561333</v>
       </c>
       <c r="R10">
-        <v>2.48646800688</v>
+        <v>967.4845583052</v>
       </c>
       <c r="S10">
-        <v>0.0002576089991547221</v>
+        <v>0.02809190800025324</v>
       </c>
       <c r="T10">
-        <v>0.000297553187412281</v>
+        <v>0.02900487686742189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,45 +1107,45 @@
         <v>2.01084</v>
       </c>
       <c r="I11">
-        <v>0.1413002966488295</v>
+        <v>0.08079397830848588</v>
       </c>
       <c r="J11">
-        <v>0.1631207986562514</v>
+        <v>0.08336672828252452</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>100.6318613333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N11">
-        <v>301.895584</v>
+        <v>1.222236</v>
       </c>
       <c r="O11">
-        <v>0.4451120557830785</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P11">
-        <v>0.4453553442621278</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q11">
-        <v>67.45152401450666</v>
+        <v>0.40962017304</v>
       </c>
       <c r="R11">
-        <v>607.06371613056</v>
+        <v>2.45772103824</v>
       </c>
       <c r="S11">
-        <v>0.06289446552411934</v>
+        <v>0.0001070436825639937</v>
       </c>
       <c r="T11">
-        <v>0.07264671944186807</v>
+        <v>7.368168874291826E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1154,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.392014</v>
+        <v>0.67028</v>
       </c>
       <c r="H12">
-        <v>1.176042</v>
+        <v>2.01084</v>
       </c>
       <c r="I12">
-        <v>0.08263963491450477</v>
+        <v>0.08079397830848588</v>
       </c>
       <c r="J12">
-        <v>0.09540137966884249</v>
+        <v>0.08336672828252452</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.370512</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N12">
-        <v>0.741024</v>
+        <v>571.812989</v>
       </c>
       <c r="O12">
-        <v>0.001638838393995521</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P12">
-        <v>0.00109315609805839</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q12">
-        <v>0.145245891168</v>
+        <v>127.7582700889733</v>
       </c>
       <c r="R12">
-        <v>0.871475347008</v>
+        <v>1149.82443080076</v>
       </c>
       <c r="S12">
-        <v>0.0001354330065636632</v>
+        <v>0.03338633350705014</v>
       </c>
       <c r="T12">
-        <v>0.0001042885999481789</v>
+        <v>0.03447136778384513</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,55 +1216,55 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.392014</v>
+        <v>0.67028</v>
       </c>
       <c r="H13">
-        <v>1.176042</v>
+        <v>2.01084</v>
       </c>
       <c r="I13">
-        <v>0.08263963491450477</v>
+        <v>0.08079397830848588</v>
       </c>
       <c r="J13">
-        <v>0.09540137966884249</v>
+        <v>0.08336672828252452</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01356733333333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N13">
-        <v>0.040702</v>
+        <v>328.145355</v>
       </c>
       <c r="O13">
-        <v>6.001065220776088E-05</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P13">
-        <v>6.004345271296557E-05</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q13">
-        <v>0.005318584609333333</v>
+        <v>73.31642284979999</v>
       </c>
       <c r="R13">
-        <v>0.04786726148399999</v>
+        <v>659.8478056481999</v>
       </c>
       <c r="S13">
-        <v>4.959258389430679E-06</v>
+        <v>0.01915935886657405</v>
       </c>
       <c r="T13">
-        <v>5.728228228897818E-06</v>
+        <v>0.01978202565588349</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,55 +1278,55 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3750883333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.125265</v>
+      </c>
+      <c r="I14">
+        <v>0.04521226751074096</v>
+      </c>
+      <c r="J14">
+        <v>0.04665197703488838</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.392014</v>
-      </c>
-      <c r="H14">
-        <v>1.176042</v>
-      </c>
-      <c r="I14">
-        <v>0.08263963491450477</v>
-      </c>
-      <c r="J14">
-        <v>0.09540137966884249</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>124.6539663333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N14">
-        <v>373.961899</v>
+        <v>0.536169</v>
       </c>
       <c r="O14">
-        <v>0.5513659638308389</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P14">
-        <v>0.5516673283636506</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q14">
-        <v>48.86609995819534</v>
+        <v>0.1005553682975</v>
       </c>
       <c r="R14">
-        <v>439.7948996237581</v>
+        <v>0.603332209785</v>
       </c>
       <c r="S14">
-        <v>0.04556468195526456</v>
+        <v>2.627755572744206E-05</v>
       </c>
       <c r="T14">
-        <v>0.05262982424411664</v>
+        <v>1.80877062116821E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,55 +1340,55 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.392014</v>
+        <v>0.3750883333333333</v>
       </c>
       <c r="H15">
-        <v>1.176042</v>
+        <v>1.125265</v>
       </c>
       <c r="I15">
-        <v>0.08263963491450477</v>
+        <v>0.04521226751074096</v>
       </c>
       <c r="J15">
-        <v>0.09540137966884249</v>
+        <v>0.04665197703488838</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.4121773333333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N15">
-        <v>1.236532</v>
+        <v>0.040702</v>
       </c>
       <c r="O15">
-        <v>0.001823131339879293</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P15">
-        <v>0.001824127823450168</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q15">
-        <v>0.1615792851493333</v>
+        <v>0.005088948447777778</v>
       </c>
       <c r="R15">
-        <v>1.454213566344</v>
+        <v>0.04580053603</v>
       </c>
       <c r="S15">
-        <v>0.0001506629083288167</v>
+        <v>1.32986561229556E-06</v>
       </c>
       <c r="T15">
-        <v>0.0001740243110494688</v>
+        <v>1.373085385816571E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.392014</v>
+        <v>0.3750883333333333</v>
       </c>
       <c r="H16">
-        <v>1.176042</v>
+        <v>1.125265</v>
       </c>
       <c r="I16">
-        <v>0.08263963491450477</v>
+        <v>0.04521226751074096</v>
       </c>
       <c r="J16">
-        <v>0.09540137966884249</v>
+        <v>0.04665197703488838</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,33 +1429,33 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>100.6318613333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N16">
-        <v>301.895584</v>
+        <v>481.13453</v>
       </c>
       <c r="O16">
-        <v>0.4451120557830785</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P16">
-        <v>0.4453553442621278</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q16">
-        <v>39.44909848872533</v>
+        <v>60.1559829889389</v>
       </c>
       <c r="R16">
-        <v>355.041886398528</v>
+        <v>541.40384690045</v>
       </c>
       <c r="S16">
-        <v>0.03678389778595829</v>
+        <v>0.01572021685261133</v>
       </c>
       <c r="T16">
-        <v>0.0424875142854993</v>
+        <v>0.01623111374759777</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -1461,7 +1464,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,61 +1473,61 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9108849999999999</v>
+        <v>0.3750883333333333</v>
       </c>
       <c r="H17">
-        <v>2.732655</v>
+        <v>1.125265</v>
       </c>
       <c r="I17">
-        <v>0.1920217233290104</v>
+        <v>0.04521226751074096</v>
       </c>
       <c r="J17">
-        <v>0.2216749547711398</v>
+        <v>0.04665197703488838</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.370512</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N17">
-        <v>0.741024</v>
+        <v>1.222236</v>
       </c>
       <c r="O17">
-        <v>0.001638838393995521</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P17">
-        <v>0.00109315609805839</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q17">
-        <v>0.33749382312</v>
+        <v>0.22922323209</v>
       </c>
       <c r="R17">
-        <v>2.02496293872</v>
+        <v>1.37533939254</v>
       </c>
       <c r="S17">
-        <v>0.0003146925726727677</v>
+        <v>5.990158812256188E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002423253285948893</v>
+        <v>4.123223403319007E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1532,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9108849999999999</v>
+        <v>0.3750883333333333</v>
       </c>
       <c r="H18">
-        <v>2.732655</v>
+        <v>1.125265</v>
       </c>
       <c r="I18">
-        <v>0.1920217233290104</v>
+        <v>0.04521226751074096</v>
       </c>
       <c r="J18">
-        <v>0.2216749547711398</v>
+        <v>0.04665197703488838</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.01356733333333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N18">
-        <v>0.040702</v>
+        <v>571.812989</v>
       </c>
       <c r="O18">
-        <v>6.001065220776088E-05</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P18">
-        <v>6.004345271296557E-05</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q18">
-        <v>0.01235828042333333</v>
+        <v>71.49346034078722</v>
       </c>
       <c r="R18">
-        <v>0.11122452381</v>
+        <v>643.441143067085</v>
       </c>
       <c r="S18">
-        <v>1.152334885503212E-05</v>
+        <v>0.01868297456476436</v>
       </c>
       <c r="T18">
-        <v>1.331012966444971E-05</v>
+        <v>0.01929015917193237</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1588,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9108849999999999</v>
+        <v>0.3750883333333333</v>
       </c>
       <c r="H19">
-        <v>2.732655</v>
+        <v>1.125265</v>
       </c>
       <c r="I19">
-        <v>0.1920217233290104</v>
+        <v>0.04521226751074096</v>
       </c>
       <c r="J19">
-        <v>0.2216749547711398</v>
+        <v>0.04665197703488838</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>124.6539663333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N19">
-        <v>373.961899</v>
+        <v>328.145355</v>
       </c>
       <c r="O19">
-        <v>0.5513659638308389</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P19">
-        <v>0.5516673283636506</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q19">
-        <v>113.5454281235383</v>
+        <v>41.02783143267499</v>
       </c>
       <c r="R19">
-        <v>1021.908853111845</v>
+        <v>369.250482894075</v>
       </c>
       <c r="S19">
-        <v>0.1058742425597585</v>
+        <v>0.01072156708390297</v>
       </c>
       <c r="T19">
-        <v>0.1222908300637278</v>
+        <v>0.01107001108972754</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1650,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9108849999999999</v>
+        <v>6.453176333333333</v>
       </c>
       <c r="H20">
-        <v>2.732655</v>
+        <v>19.359529</v>
       </c>
       <c r="I20">
-        <v>0.1920217233290104</v>
+        <v>0.7778507320763975</v>
       </c>
       <c r="J20">
-        <v>0.2216749547711398</v>
+        <v>0.8026200959900606</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4121773333333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N20">
-        <v>1.236532</v>
+        <v>0.536169</v>
       </c>
       <c r="O20">
-        <v>0.001823131339879293</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P20">
-        <v>0.001824127823450168</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q20">
-        <v>0.3754461502733333</v>
+        <v>1.7299965507335</v>
       </c>
       <c r="R20">
-        <v>3.37901535246</v>
+        <v>10.379979304401</v>
       </c>
       <c r="S20">
-        <v>0.0003500808217387496</v>
+        <v>0.0004520900429272489</v>
       </c>
       <c r="T20">
-        <v>0.0004043634527600937</v>
+        <v>0.0003111884515634448</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,7 +1712,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1718,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9108849999999999</v>
+        <v>6.453176333333333</v>
       </c>
       <c r="H21">
-        <v>2.732655</v>
+        <v>19.359529</v>
       </c>
       <c r="I21">
-        <v>0.1920217233290104</v>
+        <v>0.7778507320763975</v>
       </c>
       <c r="J21">
-        <v>0.2216749547711398</v>
+        <v>0.8026200959900606</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>100.6318613333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N21">
-        <v>301.895584</v>
+        <v>0.040702</v>
       </c>
       <c r="O21">
-        <v>0.4451120557830785</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P21">
-        <v>0.4453553442621278</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q21">
-        <v>91.66405301061333</v>
+        <v>0.0875523943731111</v>
       </c>
       <c r="R21">
-        <v>824.97647709552</v>
+        <v>0.787971549358</v>
       </c>
       <c r="S21">
-        <v>0.08547118402598533</v>
+        <v>2.28795633804825E-05</v>
       </c>
       <c r="T21">
-        <v>0.09872412579639255</v>
+        <v>2.362313441384215E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -1771,7 +1774,7 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1780,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8668149999999999</v>
+        <v>6.453176333333333</v>
       </c>
       <c r="H22">
-        <v>2.600445</v>
+        <v>19.359529</v>
       </c>
       <c r="I22">
-        <v>0.1827314206595082</v>
+        <v>0.7778507320763975</v>
       </c>
       <c r="J22">
-        <v>0.2109499837190705</v>
+        <v>0.8026200959900606</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.370512</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N22">
-        <v>0.741024</v>
+        <v>481.13453</v>
       </c>
       <c r="O22">
-        <v>0.001638838393995521</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P22">
-        <v>0.00109315609805839</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q22">
-        <v>0.32116535928</v>
+        <v>1034.948654048486</v>
       </c>
       <c r="R22">
-        <v>1.92699215568</v>
+        <v>9314.53788643637</v>
       </c>
       <c r="S22">
-        <v>0.0002994672679661484</v>
+        <v>0.2704571759047138</v>
       </c>
       <c r="T22">
-        <v>0.00023060126108782</v>
+        <v>0.2792468594499231</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -1833,7 +1836,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1842,51 +1845,51 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8668149999999999</v>
+        <v>6.453176333333333</v>
       </c>
       <c r="H23">
-        <v>2.600445</v>
+        <v>19.359529</v>
       </c>
       <c r="I23">
-        <v>0.1827314206595082</v>
+        <v>0.7778507320763975</v>
       </c>
       <c r="J23">
-        <v>0.2109499837190705</v>
+        <v>0.8026200959900606</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.01356733333333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N23">
-        <v>0.040702</v>
+        <v>1.222236</v>
       </c>
       <c r="O23">
-        <v>6.001065220776088E-05</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P23">
-        <v>6.004345271296557E-05</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q23">
-        <v>0.01176036804333333</v>
+        <v>3.943652214474</v>
       </c>
       <c r="R23">
-        <v>0.10584331239</v>
+        <v>23.661913286844</v>
       </c>
       <c r="S23">
-        <v>1.09658317326278E-05</v>
+        <v>0.001030571938525407</v>
       </c>
       <c r="T23">
-        <v>1.266616537223686E-05</v>
+        <v>0.0007093765739628709</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1895,7 +1898,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1904,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8668149999999999</v>
+        <v>6.453176333333333</v>
       </c>
       <c r="H24">
-        <v>2.600445</v>
+        <v>19.359529</v>
       </c>
       <c r="I24">
-        <v>0.1827314206595082</v>
+        <v>0.7778507320763975</v>
       </c>
       <c r="J24">
-        <v>0.2109499837190705</v>
+        <v>0.8026200959900606</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,43 +1925,43 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>124.6539663333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N24">
-        <v>373.961899</v>
+        <v>571.812989</v>
       </c>
       <c r="O24">
-        <v>0.5513659638308389</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P24">
-        <v>0.5516673283636506</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q24">
-        <v>108.0519278272283</v>
+        <v>1230.003349235798</v>
       </c>
       <c r="R24">
-        <v>972.4673504450549</v>
+        <v>11070.03014312218</v>
       </c>
       <c r="S24">
-        <v>0.1007518858741082</v>
+        <v>0.3214296969094552</v>
       </c>
       <c r="T24">
-        <v>0.1163742139366552</v>
+        <v>0.331875954467295</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1966,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8668149999999999</v>
+        <v>6.453176333333333</v>
       </c>
       <c r="H25">
-        <v>2.600445</v>
+        <v>19.359529</v>
       </c>
       <c r="I25">
-        <v>0.1827314206595082</v>
+        <v>0.7778507320763975</v>
       </c>
       <c r="J25">
-        <v>0.2109499837190705</v>
+        <v>0.8026200959900606</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4121773333333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N25">
-        <v>1.236532</v>
+        <v>328.145355</v>
       </c>
       <c r="O25">
-        <v>0.001823131339879293</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P25">
-        <v>0.001824127823450168</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q25">
-        <v>0.3572814951933333</v>
+        <v>705.8599462597549</v>
       </c>
       <c r="R25">
-        <v>3.215533456739999</v>
+        <v>6352.739516337794</v>
       </c>
       <c r="S25">
-        <v>0.0003331433797850159</v>
+        <v>0.1844583177173955</v>
       </c>
       <c r="T25">
-        <v>0.0003847997346583165</v>
+        <v>0.1904530939129023</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2019,55 +2022,365 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.02954366666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.088631</v>
+      </c>
+      <c r="I26">
+        <v>0.003561124252282336</v>
+      </c>
+      <c r="J26">
+        <v>0.003674522336142324</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2680845</v>
+      </c>
+      <c r="N26">
+        <v>0.536169</v>
+      </c>
+      <c r="O26">
+        <v>0.0005812041106144338</v>
+      </c>
+      <c r="P26">
+        <v>0.0003877157488557307</v>
+      </c>
+      <c r="Q26">
+        <v>0.007920199106499999</v>
+      </c>
+      <c r="R26">
+        <v>0.047521194639</v>
+      </c>
+      <c r="S26">
+        <v>2.069740053835246E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.42467017924453E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.8668149999999999</v>
-      </c>
-      <c r="H26">
-        <v>2.600445</v>
-      </c>
-      <c r="I26">
-        <v>0.1827314206595082</v>
-      </c>
-      <c r="J26">
-        <v>0.2109499837190705</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>100.6318613333333</v>
-      </c>
-      <c r="N26">
-        <v>301.895584</v>
-      </c>
-      <c r="O26">
-        <v>0.4451120557830785</v>
-      </c>
-      <c r="P26">
-        <v>0.4453553442621278</v>
-      </c>
-      <c r="Q26">
-        <v>87.22920688165333</v>
-      </c>
-      <c r="R26">
-        <v>785.0628619348798</v>
-      </c>
-      <c r="S26">
-        <v>0.08133595830591618</v>
-      </c>
-      <c r="T26">
-        <v>0.09394770262129688</v>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.02954366666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.088631</v>
+      </c>
+      <c r="I27">
+        <v>0.003561124252282336</v>
+      </c>
+      <c r="J27">
+        <v>0.003674522336142324</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.040702</v>
+      </c>
+      <c r="O27">
+        <v>2.941382252017391E-05</v>
+      </c>
+      <c r="P27">
+        <v>2.943252297302894E-05</v>
+      </c>
+      <c r="Q27">
+        <v>0.0004008287735555555</v>
+      </c>
+      <c r="R27">
+        <v>0.003607458962</v>
+      </c>
+      <c r="S27">
+        <v>1.047462767289196E-07</v>
+      </c>
+      <c r="T27">
+        <v>1.081504630734169E-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.02954366666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.088631</v>
+      </c>
+      <c r="I28">
+        <v>0.003561124252282336</v>
+      </c>
+      <c r="J28">
+        <v>0.003674522336142324</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>160.3781766666667</v>
+      </c>
+      <c r="N28">
+        <v>481.13453</v>
+      </c>
+      <c r="O28">
+        <v>0.3476980412202665</v>
+      </c>
+      <c r="P28">
+        <v>0.34791909752205</v>
+      </c>
+      <c r="Q28">
+        <v>4.738159392047779</v>
+      </c>
+      <c r="R28">
+        <v>42.64343452843001</v>
+      </c>
+      <c r="S28">
+        <v>0.001238195927060555</v>
+      </c>
+      <c r="T28">
+        <v>0.001278436495015252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.02954366666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.088631</v>
+      </c>
+      <c r="I29">
+        <v>0.003561124252282336</v>
+      </c>
+      <c r="J29">
+        <v>0.003674522336142324</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N29">
+        <v>1.222236</v>
+      </c>
+      <c r="O29">
+        <v>0.001324896790640531</v>
+      </c>
+      <c r="P29">
+        <v>0.000883826080990197</v>
+      </c>
+      <c r="Q29">
+        <v>0.018054666486</v>
+      </c>
+      <c r="R29">
+        <v>0.108327998916</v>
+      </c>
+      <c r="S29">
+        <v>4.718122092921029E-06</v>
+      </c>
+      <c r="T29">
+        <v>3.247638675863613E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.02954366666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.088631</v>
+      </c>
+      <c r="I30">
+        <v>0.003561124252282336</v>
+      </c>
+      <c r="J30">
+        <v>0.003674522336142324</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>190.6043296666667</v>
+      </c>
+      <c r="N30">
+        <v>571.812989</v>
+      </c>
+      <c r="O30">
+        <v>0.4132279930513526</v>
+      </c>
+      <c r="P30">
+        <v>0.4134907113905666</v>
+      </c>
+      <c r="Q30">
+        <v>5.631150780895444</v>
+      </c>
+      <c r="R30">
+        <v>50.680357028059</v>
+      </c>
+      <c r="S30">
+        <v>0.001471556227777128</v>
+      </c>
+      <c r="T30">
+        <v>0.001519380854792016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.02954366666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.088631</v>
+      </c>
+      <c r="I31">
+        <v>0.003561124252282336</v>
+      </c>
+      <c r="J31">
+        <v>0.003674522336142324</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>109.381785</v>
+      </c>
+      <c r="N31">
+        <v>328.145355</v>
+      </c>
+      <c r="O31">
+        <v>0.2371384510046057</v>
+      </c>
+      <c r="P31">
+        <v>0.2372892167345643</v>
+      </c>
+      <c r="Q31">
+        <v>3.231538995445</v>
+      </c>
+      <c r="R31">
+        <v>29.083850959005</v>
+      </c>
+      <c r="S31">
+        <v>0.0008444794890211677</v>
+      </c>
+      <c r="T31">
+        <v>0.0008719245270168733</v>
       </c>
     </row>
   </sheetData>
